--- a/medicine/Nettoyage et hygiène/Ariel_(marque)/Ariel_(marque).xlsx
+++ b/medicine/Nettoyage et hygiène/Ariel_(marque)/Ariel_(marque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ariel est une marque de lessive appartenant à Procter &amp; Gamble.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Procter &amp; Gamble met au point la lessive Ariel dans son centre technique européen, situé à Bruxelles. Le produit, qui contient notamment des enzymes, est commercialisé pour la première fois sous la marque Ariel en 1967. L'année suivante, il fait son apparition sur le marché français[1].
-Une « nouvelle formule », lancée en 1981, permet de réduire les températures de lavage. Au cours des années 1980, Procter &amp; Gamble met en vente de nouvelles déclinaisons, dont Ariel Liquide, Ariel Color et Ariel Ultra, une lessive en poudre dite « compacte ». Ariel Ultra Liquide est commercialisée au début des années 1990[1]. Cette dernière répond à la sortie de Skip Micro Liquide du concurrent Unilever. En 1994, Ariel est la marque no 1 en France avec une part de marché de 35 %[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procter &amp; Gamble met au point la lessive Ariel dans son centre technique européen, situé à Bruxelles. Le produit, qui contient notamment des enzymes, est commercialisé pour la première fois sous la marque Ariel en 1967. L'année suivante, il fait son apparition sur le marché français.
+Une « nouvelle formule », lancée en 1981, permet de réduire les températures de lavage. Au cours des années 1980, Procter &amp; Gamble met en vente de nouvelles déclinaisons, dont Ariel Liquide, Ariel Color et Ariel Ultra, une lessive en poudre dite « compacte ». Ariel Ultra Liquide est commercialisée au début des années 1990. Cette dernière répond à la sortie de Skip Micro Liquide du concurrent Unilever. En 1994, Ariel est la marque no 1 en France avec une part de marché de 35 %.
 </t>
         </is>
       </c>
